--- a/Flash_Data_Table.xlsx
+++ b/Flash_Data_Table.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>u8GropuNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u16WateringTimeManul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>u8Channel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0xFF, 0xFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0xFF…0xFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,6 +297,22 @@
   </si>
   <si>
     <t>u8CheckSumBCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8ChannelManual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16WateringTimeManul[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16WateringTimeManul[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -453,6 +461,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -756,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q6"/>
+  <dimension ref="B2:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -770,119 +781,130 @@
     <col min="4" max="4" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="24.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="12"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B4" s="13"/>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="8" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S4" s="13"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
         <v>8</v>
@@ -896,17 +918,17 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
-        <v>2</v>
+      <c r="G5" s="9">
+        <v>1</v>
       </c>
       <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
         <v>16</v>
       </c>
-      <c r="I5" s="2">
-        <v>8</v>
-      </c>
-      <c r="J5" s="2">
-        <v>8</v>
+      <c r="J5" s="9">
+        <v>16</v>
       </c>
       <c r="K5" s="2">
         <v>8</v>
@@ -915,72 +937,84 @@
         <v>8</v>
       </c>
       <c r="M5" s="2">
+        <v>8</v>
+      </c>
+      <c r="N5" s="2">
+        <v>8</v>
+      </c>
+      <c r="O5" s="2">
         <v>16</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="2">
-        <v>80</v>
-      </c>
-      <c r="P5" s="2">
+      <c r="P5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>64</v>
+      </c>
+      <c r="R5" s="2">
         <v>8</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="S5" s="2">
         <v>408</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="10">
         <v>1</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="2">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="2">
         <v>2</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="2">
-        <v>10</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="J6" s="9">
+        <v>2</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="2">
+        <v>8</v>
+      </c>
+      <c r="R6" s="2">
         <v>1</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="S6" s="2">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="Q3:Q4"/>
+  <mergeCells count="17">
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="S3:S4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1006,90 +1040,90 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="B2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
       <c r="M4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="15"/>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
         <v>51</v>
@@ -1169,138 +1203,138 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Flash_Data_Table.xlsx
+++ b/Flash_Data_Table.xlsx
@@ -23,10 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
-    <t>u8GropuNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x5A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,10 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u8WorkingMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>u8StopFlag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,6 +305,14 @@
   </si>
   <si>
     <t>0xFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8GroupNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enWorkingMode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,16 +466,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -797,114 +797,114 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
+      <c r="B2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B4" s="11"/>
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="13"/>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="8" t="s">
+      <c r="R4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S4" s="13"/>
+      <c r="S4" s="11"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
         <v>8</v>
@@ -946,7 +946,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="2">
         <v>64</v>
@@ -960,32 +960,32 @@
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="12">
         <v>1</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="2">
         <v>2</v>
       </c>
       <c r="J6" s="9">
         <v>2</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="K6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
       <c r="Q6" s="2">
         <v>8</v>
       </c>
@@ -998,6 +998,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="K6:P6"/>
@@ -1014,7 +1015,6 @@
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
-    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1041,7 +1041,7 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -1058,72 +1058,72 @@
       <c r="O2" s="14"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
       <c r="M4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2">
         <v>51</v>
@@ -1203,138 +1203,138 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Flash_Data_Table.xlsx
+++ b/Flash_Data_Table.xlsx
@@ -296,14 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u16WateringTimeManul[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u16WateringTimeManul[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0xFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,6 +305,16 @@
   </si>
   <si>
     <t>enWorkingMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16WateringTimeManual
+[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16WateringTimeManual
+[1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -486,6 +488,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:P6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -783,7 +788,7 @@
     <col min="6" max="6" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="24.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="23.25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.375" style="1" bestFit="1" customWidth="1"/>
@@ -826,10 +831,10 @@
         <v>66</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>69</v>
@@ -840,11 +845,11 @@
       <c r="H3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>73</v>
+      <c r="I3" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>2</v>
@@ -884,7 +889,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -998,6 +1003,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="D6:H6"/>
@@ -1014,7 +1020,6 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1027,7 +1032,7 @@
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1191,7 +1196,7 @@
   <dimension ref="A3:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Flash_Data_Table.xlsx
+++ b/Flash_Data_Table.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Partition" sheetId="1" r:id="rId1"/>
-    <sheet name="Sector" sheetId="2" r:id="rId2"/>
-    <sheet name="Sectors" sheetId="3" r:id="rId3"/>
+    <sheet name="Data in a Partition" sheetId="4" r:id="rId1"/>
+    <sheet name="Partition" sheetId="1" r:id="rId2"/>
+    <sheet name="Sector" sheetId="2" r:id="rId3"/>
+    <sheet name="Sectors" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,37 +22,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="137">
   <si>
     <t>0x5A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>bits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Reserved</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u8Channel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u8StartHour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u8StartMin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u8DaysApart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u16WateringTimeAuto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bits</t>
+    <t>Partition0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partition1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partition2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partition3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partition4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partition5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partition6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partition7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partition8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -59,6 +92,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Data in one Sector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data in one Partition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,78 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>36 (6 groups)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reserved</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Partition0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Partition1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Partition2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Partition3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Partition4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Partition5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Partition6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Partition7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Partition8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Partition9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bytes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data in one Sector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data in one Partition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sector1</t>
   </si>
   <si>
@@ -272,14 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Start Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xFF…0xFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BCC (XOR)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,14 +254,6 @@
   </si>
   <si>
     <t>u8ChannelManual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u8GroupNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -315,6 +268,302 @@
   <si>
     <t>u16WateringTimeManual
 [1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8ChannelAuto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16WateringTimeAuto
+[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartHour
+[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartMin
+[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16WateringTimeAuto
+[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enWorkingMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartHour
+[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartMin
+[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8GroupNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8GroupNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StopFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8ChannelManual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16WateringTimeManual[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16WateringTimeManual[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8DaysApart[0][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartHour[0][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartMin[0][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16WateringTimeAuto[0][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8DaysApart[0][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartHour[0][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartMin[0][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16WateringTimeAuto[0][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8DaysApart[1][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartHour[1][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartMin[1][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16WateringTimeAuto[1][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48 (6 groups in total, 2 channels each group)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8DaysApart
+[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8DaysApart
+[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Datas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8DaysApart[1][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartHour[1][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartMin[1][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16WateringTimeAuto[1][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8DaysApart[2][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartHour[2][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartMin[2][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16WateringTimeAuto[2][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8DaysApart[2][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartHour[2][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartMin[2][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16WateringTimeAuto[2][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8DaysApart[3][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartHour[3][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartMin[3][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16WateringTimeAuto[3][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8DaysApart[3][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartHour[3][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartMin[3][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16WateringTimeAuto[3][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8DaysApart[4][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartHour[4][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartMin[4][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16WateringTimeAuto[4][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8DaysApart[4][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartHour[4][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartMin[4][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16WateringTimeAuto[4][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8DaysApart[5][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartHour[5][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartMin[5][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16WateringTimeAuto[5][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8DaysApart[5][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartHour[5][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u8StartMin[5][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16WateringTimeAuto[5][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCC Checksum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reserved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xFFFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -322,7 +571,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,8 +593,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,8 +634,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -435,11 +723,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -468,16 +846,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -488,9 +980,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,10 +1261,3217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S6"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AO522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR20" sqref="AR20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="4.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="4.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="4.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="33" width="4.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="41" width="4.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="42">
+        <v>0</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
+        <v>1</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42">
+        <v>2</v>
+      </c>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="41">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42">
+        <v>4</v>
+      </c>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20">
+        <v>2</v>
+      </c>
+      <c r="E3" s="20">
+        <v>3</v>
+      </c>
+      <c r="F3" s="20">
+        <v>4</v>
+      </c>
+      <c r="G3" s="20">
+        <v>5</v>
+      </c>
+      <c r="H3" s="20">
+        <v>6</v>
+      </c>
+      <c r="I3" s="21">
+        <v>7</v>
+      </c>
+      <c r="J3" s="25">
+        <v>8</v>
+      </c>
+      <c r="K3" s="26">
+        <v>9</v>
+      </c>
+      <c r="L3" s="26">
+        <v>10</v>
+      </c>
+      <c r="M3" s="27">
+        <v>11</v>
+      </c>
+      <c r="N3" s="28">
+        <v>12</v>
+      </c>
+      <c r="O3" s="29">
+        <v>13</v>
+      </c>
+      <c r="P3" s="29">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="29">
+        <v>15</v>
+      </c>
+      <c r="R3" s="22">
+        <v>16</v>
+      </c>
+      <c r="S3" s="23">
+        <v>17</v>
+      </c>
+      <c r="T3" s="23">
+        <v>18</v>
+      </c>
+      <c r="U3" s="23">
+        <v>19</v>
+      </c>
+      <c r="V3" s="23">
+        <v>20</v>
+      </c>
+      <c r="W3" s="23">
+        <v>21</v>
+      </c>
+      <c r="X3" s="23">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="23">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="32">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="33">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="14">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="14">
+        <v>29</v>
+      </c>
+      <c r="AF3" s="31">
+        <v>30</v>
+      </c>
+      <c r="AG3" s="32">
+        <v>31</v>
+      </c>
+      <c r="AH3" s="30">
+        <v>32</v>
+      </c>
+      <c r="AI3" s="30">
+        <v>33</v>
+      </c>
+      <c r="AJ3" s="30">
+        <v>34</v>
+      </c>
+      <c r="AK3" s="30">
+        <v>35</v>
+      </c>
+      <c r="AL3" s="30">
+        <v>36</v>
+      </c>
+      <c r="AM3" s="30">
+        <v>37</v>
+      </c>
+      <c r="AN3" s="30">
+        <v>38</v>
+      </c>
+      <c r="AO3" s="34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="40"/>
+      <c r="AF4" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="40"/>
+    </row>
+    <row r="5" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="41">
+        <v>5</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41">
+        <v>6</v>
+      </c>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="42">
+        <v>7</v>
+      </c>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42">
+        <v>8</v>
+      </c>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="41">
+        <v>9</v>
+      </c>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="41"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="41"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="19">
+        <v>40</v>
+      </c>
+      <c r="C7" s="20">
+        <v>41</v>
+      </c>
+      <c r="D7" s="20">
+        <v>42</v>
+      </c>
+      <c r="E7" s="20">
+        <v>43</v>
+      </c>
+      <c r="F7" s="20">
+        <v>44</v>
+      </c>
+      <c r="G7" s="20">
+        <v>45</v>
+      </c>
+      <c r="H7" s="21">
+        <v>46</v>
+      </c>
+      <c r="I7" s="18">
+        <v>47</v>
+      </c>
+      <c r="J7" s="25">
+        <v>48</v>
+      </c>
+      <c r="K7" s="26">
+        <v>49</v>
+      </c>
+      <c r="L7" s="26">
+        <v>50</v>
+      </c>
+      <c r="M7" s="26">
+        <v>51</v>
+      </c>
+      <c r="N7" s="27">
+        <v>52</v>
+      </c>
+      <c r="O7" s="17">
+        <v>53</v>
+      </c>
+      <c r="P7" s="17">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>55</v>
+      </c>
+      <c r="R7" s="22">
+        <v>56</v>
+      </c>
+      <c r="S7" s="23">
+        <v>57</v>
+      </c>
+      <c r="T7" s="23">
+        <v>58</v>
+      </c>
+      <c r="U7" s="23">
+        <v>59</v>
+      </c>
+      <c r="V7" s="23">
+        <v>60</v>
+      </c>
+      <c r="W7" s="24">
+        <v>61</v>
+      </c>
+      <c r="X7" s="22">
+        <v>62</v>
+      </c>
+      <c r="Y7" s="23">
+        <v>63</v>
+      </c>
+      <c r="Z7" s="32">
+        <v>64</v>
+      </c>
+      <c r="AA7" s="32">
+        <v>65</v>
+      </c>
+      <c r="AB7" s="32">
+        <v>66</v>
+      </c>
+      <c r="AC7" s="32">
+        <v>67</v>
+      </c>
+      <c r="AD7" s="32">
+        <v>68</v>
+      </c>
+      <c r="AE7" s="32">
+        <v>69</v>
+      </c>
+      <c r="AF7" s="32">
+        <v>70</v>
+      </c>
+      <c r="AG7" s="33">
+        <v>71</v>
+      </c>
+      <c r="AH7" s="37">
+        <v>72</v>
+      </c>
+      <c r="AI7" s="30">
+        <v>73</v>
+      </c>
+      <c r="AJ7" s="30">
+        <v>74</v>
+      </c>
+      <c r="AK7" s="30">
+        <v>75</v>
+      </c>
+      <c r="AL7" s="30">
+        <v>76</v>
+      </c>
+      <c r="AM7" s="30">
+        <v>77</v>
+      </c>
+      <c r="AN7" s="34">
+        <v>78</v>
+      </c>
+      <c r="AO7" s="15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
+      <c r="J8" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="40"/>
+      <c r="R8" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="39"/>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="40"/>
+    </row>
+    <row r="9" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="41">
+        <v>10</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42">
+        <v>11</v>
+      </c>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42">
+        <v>12</v>
+      </c>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="41">
+        <v>13</v>
+      </c>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41">
+        <v>14</v>
+      </c>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="41"/>
+      <c r="AL10" s="41"/>
+      <c r="AM10" s="41"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="41"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="19">
+        <v>80</v>
+      </c>
+      <c r="C11" s="20">
+        <v>81</v>
+      </c>
+      <c r="D11" s="20">
+        <v>82</v>
+      </c>
+      <c r="E11" s="20">
+        <v>83</v>
+      </c>
+      <c r="F11" s="21">
+        <v>84</v>
+      </c>
+      <c r="G11" s="18">
+        <v>85</v>
+      </c>
+      <c r="H11" s="18">
+        <v>86</v>
+      </c>
+      <c r="I11" s="18">
+        <v>87</v>
+      </c>
+      <c r="J11" s="25">
+        <v>88</v>
+      </c>
+      <c r="K11" s="26">
+        <v>89</v>
+      </c>
+      <c r="L11" s="26">
+        <v>90</v>
+      </c>
+      <c r="M11" s="26">
+        <v>91</v>
+      </c>
+      <c r="N11" s="26">
+        <v>92</v>
+      </c>
+      <c r="O11" s="27">
+        <v>93</v>
+      </c>
+      <c r="P11" s="25">
+        <v>94</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>95</v>
+      </c>
+      <c r="R11" s="23">
+        <v>96</v>
+      </c>
+      <c r="S11" s="23">
+        <v>97</v>
+      </c>
+      <c r="T11" s="23">
+        <v>98</v>
+      </c>
+      <c r="U11" s="23">
+        <v>99</v>
+      </c>
+      <c r="V11" s="23">
+        <v>100</v>
+      </c>
+      <c r="W11" s="23">
+        <v>101</v>
+      </c>
+      <c r="X11" s="23">
+        <v>102</v>
+      </c>
+      <c r="Y11" s="24">
+        <v>103</v>
+      </c>
+      <c r="Z11" s="31">
+        <v>104</v>
+      </c>
+      <c r="AA11" s="32">
+        <v>105</v>
+      </c>
+      <c r="AB11" s="32">
+        <v>106</v>
+      </c>
+      <c r="AC11" s="32">
+        <v>107</v>
+      </c>
+      <c r="AD11" s="32">
+        <v>108</v>
+      </c>
+      <c r="AE11" s="32">
+        <v>109</v>
+      </c>
+      <c r="AF11" s="33">
+        <v>110</v>
+      </c>
+      <c r="AG11" s="14">
+        <v>111</v>
+      </c>
+      <c r="AH11" s="37">
+        <v>112</v>
+      </c>
+      <c r="AI11" s="30">
+        <v>113</v>
+      </c>
+      <c r="AJ11" s="30">
+        <v>114</v>
+      </c>
+      <c r="AK11" s="30">
+        <v>115</v>
+      </c>
+      <c r="AL11" s="34">
+        <v>116</v>
+      </c>
+      <c r="AM11" s="15">
+        <v>117</v>
+      </c>
+      <c r="AN11" s="15">
+        <v>118</v>
+      </c>
+      <c r="AO11" s="15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="J12" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="40"/>
+      <c r="AH12" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="40"/>
+    </row>
+    <row r="13" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="42">
+        <v>15</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42">
+        <v>16</v>
+      </c>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="41">
+        <v>17</v>
+      </c>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41">
+        <v>18</v>
+      </c>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="41">
+        <v>19</v>
+      </c>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="41"/>
+      <c r="AK14" s="41"/>
+      <c r="AL14" s="41"/>
+      <c r="AM14" s="41"/>
+      <c r="AN14" s="41"/>
+      <c r="AO14" s="41"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="19">
+        <v>120</v>
+      </c>
+      <c r="C15" s="20">
+        <v>121</v>
+      </c>
+      <c r="D15" s="20">
+        <v>122</v>
+      </c>
+      <c r="E15" s="20">
+        <v>123</v>
+      </c>
+      <c r="F15" s="20">
+        <v>124</v>
+      </c>
+      <c r="G15" s="21">
+        <v>125</v>
+      </c>
+      <c r="H15" s="19">
+        <v>126</v>
+      </c>
+      <c r="I15" s="20">
+        <v>127</v>
+      </c>
+      <c r="J15" s="26">
+        <v>128</v>
+      </c>
+      <c r="K15" s="26">
+        <v>129</v>
+      </c>
+      <c r="L15" s="26">
+        <v>130</v>
+      </c>
+      <c r="M15" s="26">
+        <v>131</v>
+      </c>
+      <c r="N15" s="26">
+        <v>132</v>
+      </c>
+      <c r="O15" s="26">
+        <v>133</v>
+      </c>
+      <c r="P15" s="26">
+        <v>134</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>135</v>
+      </c>
+      <c r="R15" s="22">
+        <v>136</v>
+      </c>
+      <c r="S15" s="23">
+        <v>137</v>
+      </c>
+      <c r="T15" s="23">
+        <v>138</v>
+      </c>
+      <c r="U15" s="23">
+        <v>139</v>
+      </c>
+      <c r="V15" s="23">
+        <v>140</v>
+      </c>
+      <c r="W15" s="23">
+        <v>141</v>
+      </c>
+      <c r="X15" s="24">
+        <v>142</v>
+      </c>
+      <c r="Y15" s="16">
+        <v>143</v>
+      </c>
+      <c r="Z15" s="31">
+        <v>144</v>
+      </c>
+      <c r="AA15" s="32">
+        <v>145</v>
+      </c>
+      <c r="AB15" s="32">
+        <v>146</v>
+      </c>
+      <c r="AC15" s="32">
+        <v>147</v>
+      </c>
+      <c r="AD15" s="33">
+        <v>148</v>
+      </c>
+      <c r="AE15" s="14">
+        <v>149</v>
+      </c>
+      <c r="AF15" s="14">
+        <v>150</v>
+      </c>
+      <c r="AG15" s="14">
+        <v>151</v>
+      </c>
+      <c r="AH15" s="37">
+        <v>152</v>
+      </c>
+      <c r="AI15" s="30">
+        <v>153</v>
+      </c>
+      <c r="AJ15" s="30">
+        <v>154</v>
+      </c>
+      <c r="AK15" s="30">
+        <v>155</v>
+      </c>
+      <c r="AL15" s="30">
+        <v>156</v>
+      </c>
+      <c r="AM15" s="34">
+        <v>157</v>
+      </c>
+      <c r="AN15" s="37">
+        <v>158</v>
+      </c>
+      <c r="AO15" s="30">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="40"/>
+      <c r="Z16" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="40"/>
+      <c r="AH16" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI16" s="39"/>
+      <c r="AJ16" s="39"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="39"/>
+      <c r="AM16" s="40"/>
+      <c r="AN16" s="38"/>
+      <c r="AO16" s="39"/>
+    </row>
+    <row r="17" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="42">
+        <v>20</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="41">
+        <v>21</v>
+      </c>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41">
+        <v>22</v>
+      </c>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41">
+        <v>23</v>
+      </c>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41">
+        <v>24</v>
+      </c>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+      <c r="AK18" s="41"/>
+      <c r="AL18" s="41"/>
+      <c r="AM18" s="41"/>
+      <c r="AN18" s="41"/>
+      <c r="AO18" s="41"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="20">
+        <v>160</v>
+      </c>
+      <c r="C19" s="20">
+        <v>161</v>
+      </c>
+      <c r="D19" s="20">
+        <v>162</v>
+      </c>
+      <c r="E19" s="20">
+        <v>163</v>
+      </c>
+      <c r="F19" s="20">
+        <v>164</v>
+      </c>
+      <c r="G19" s="20">
+        <v>165</v>
+      </c>
+      <c r="H19" s="20">
+        <v>166</v>
+      </c>
+      <c r="I19" s="21">
+        <v>167</v>
+      </c>
+      <c r="J19" s="25">
+        <v>168</v>
+      </c>
+      <c r="K19" s="26">
+        <v>169</v>
+      </c>
+      <c r="L19" s="26">
+        <v>170</v>
+      </c>
+      <c r="M19" s="26">
+        <v>171</v>
+      </c>
+      <c r="N19" s="26">
+        <v>172</v>
+      </c>
+      <c r="O19" s="26">
+        <v>173</v>
+      </c>
+      <c r="P19" s="27">
+        <v>174</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>175</v>
+      </c>
+      <c r="R19" s="22">
+        <v>176</v>
+      </c>
+      <c r="S19" s="23">
+        <v>177</v>
+      </c>
+      <c r="T19" s="23">
+        <v>178</v>
+      </c>
+      <c r="U19" s="23">
+        <v>179</v>
+      </c>
+      <c r="V19" s="24">
+        <v>180</v>
+      </c>
+      <c r="W19" s="16">
+        <v>181</v>
+      </c>
+      <c r="X19" s="16">
+        <v>182</v>
+      </c>
+      <c r="Y19" s="16">
+        <v>183</v>
+      </c>
+      <c r="Z19" s="31">
+        <v>184</v>
+      </c>
+      <c r="AA19" s="32">
+        <v>185</v>
+      </c>
+      <c r="AB19" s="32">
+        <v>186</v>
+      </c>
+      <c r="AC19" s="32">
+        <v>187</v>
+      </c>
+      <c r="AD19" s="32">
+        <v>188</v>
+      </c>
+      <c r="AE19" s="33">
+        <v>189</v>
+      </c>
+      <c r="AF19" s="31">
+        <v>190</v>
+      </c>
+      <c r="AG19" s="32">
+        <v>191</v>
+      </c>
+      <c r="AH19" s="30">
+        <v>192</v>
+      </c>
+      <c r="AI19" s="30">
+        <v>193</v>
+      </c>
+      <c r="AJ19" s="30">
+        <v>194</v>
+      </c>
+      <c r="AK19" s="30">
+        <v>195</v>
+      </c>
+      <c r="AL19" s="30">
+        <v>196</v>
+      </c>
+      <c r="AM19" s="30">
+        <v>197</v>
+      </c>
+      <c r="AN19" s="30">
+        <v>198</v>
+      </c>
+      <c r="AO19" s="34">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="40"/>
+      <c r="R20" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="40"/>
+      <c r="Z20" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="39"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="39"/>
+      <c r="AM20" s="39"/>
+      <c r="AN20" s="39"/>
+      <c r="AO20" s="40"/>
+    </row>
+    <row r="21" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="41">
+        <v>25</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41">
+        <v>26</v>
+      </c>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41">
+        <v>27</v>
+      </c>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41">
+        <v>28</v>
+      </c>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="41">
+        <v>29</v>
+      </c>
+      <c r="AI22" s="41"/>
+      <c r="AJ22" s="41"/>
+      <c r="AK22" s="41"/>
+      <c r="AL22" s="41"/>
+      <c r="AM22" s="41"/>
+      <c r="AN22" s="41"/>
+      <c r="AO22" s="41"/>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="19">
+        <v>200</v>
+      </c>
+      <c r="C23" s="20">
+        <v>201</v>
+      </c>
+      <c r="D23" s="20">
+        <v>202</v>
+      </c>
+      <c r="E23" s="20">
+        <v>203</v>
+      </c>
+      <c r="F23" s="20">
+        <v>204</v>
+      </c>
+      <c r="G23" s="20">
+        <v>205</v>
+      </c>
+      <c r="H23" s="21">
+        <v>206</v>
+      </c>
+      <c r="I23" s="18">
+        <v>207</v>
+      </c>
+      <c r="J23" s="25">
+        <v>208</v>
+      </c>
+      <c r="K23" s="26">
+        <v>209</v>
+      </c>
+      <c r="L23" s="26">
+        <v>210</v>
+      </c>
+      <c r="M23" s="26">
+        <v>211</v>
+      </c>
+      <c r="N23" s="27">
+        <v>212</v>
+      </c>
+      <c r="O23" s="17">
+        <v>213</v>
+      </c>
+      <c r="P23" s="17">
+        <v>214</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>215</v>
+      </c>
+      <c r="R23" s="22">
+        <v>216</v>
+      </c>
+      <c r="S23" s="23">
+        <v>217</v>
+      </c>
+      <c r="T23" s="23">
+        <v>218</v>
+      </c>
+      <c r="U23" s="23">
+        <v>219</v>
+      </c>
+      <c r="V23" s="23">
+        <v>220</v>
+      </c>
+      <c r="W23" s="24">
+        <v>221</v>
+      </c>
+      <c r="X23" s="22">
+        <v>222</v>
+      </c>
+      <c r="Y23" s="23">
+        <v>223</v>
+      </c>
+      <c r="Z23" s="32">
+        <v>224</v>
+      </c>
+      <c r="AA23" s="32">
+        <v>225</v>
+      </c>
+      <c r="AB23" s="32">
+        <v>226</v>
+      </c>
+      <c r="AC23" s="32">
+        <v>227</v>
+      </c>
+      <c r="AD23" s="32">
+        <v>228</v>
+      </c>
+      <c r="AE23" s="32">
+        <v>229</v>
+      </c>
+      <c r="AF23" s="32">
+        <v>230</v>
+      </c>
+      <c r="AG23" s="33">
+        <v>231</v>
+      </c>
+      <c r="AH23" s="37">
+        <v>232</v>
+      </c>
+      <c r="AI23" s="30">
+        <v>233</v>
+      </c>
+      <c r="AJ23" s="30">
+        <v>234</v>
+      </c>
+      <c r="AK23" s="30">
+        <v>235</v>
+      </c>
+      <c r="AL23" s="30">
+        <v>236</v>
+      </c>
+      <c r="AM23" s="30">
+        <v>237</v>
+      </c>
+      <c r="AN23" s="34">
+        <v>238</v>
+      </c>
+      <c r="AO23" s="15">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="40"/>
+      <c r="J24" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="40"/>
+      <c r="R24" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="39"/>
+      <c r="AM24" s="39"/>
+      <c r="AN24" s="40"/>
+    </row>
+    <row r="25" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="41">
+        <v>30</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41">
+        <v>31</v>
+      </c>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41">
+        <v>32</v>
+      </c>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41">
+        <v>33</v>
+      </c>
+      <c r="AA26" s="41"/>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="41"/>
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="41"/>
+      <c r="AF26" s="41"/>
+      <c r="AG26" s="41"/>
+      <c r="AH26" s="41">
+        <v>34</v>
+      </c>
+      <c r="AI26" s="41"/>
+      <c r="AJ26" s="41"/>
+      <c r="AK26" s="41"/>
+      <c r="AL26" s="41"/>
+      <c r="AM26" s="41"/>
+      <c r="AN26" s="41"/>
+      <c r="AO26" s="41"/>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="19">
+        <v>240</v>
+      </c>
+      <c r="C27" s="20">
+        <v>241</v>
+      </c>
+      <c r="D27" s="20">
+        <v>242</v>
+      </c>
+      <c r="E27" s="20">
+        <v>243</v>
+      </c>
+      <c r="F27" s="21">
+        <v>244</v>
+      </c>
+      <c r="G27" s="18">
+        <v>245</v>
+      </c>
+      <c r="H27" s="18">
+        <v>246</v>
+      </c>
+      <c r="I27" s="18">
+        <v>247</v>
+      </c>
+      <c r="J27" s="25">
+        <v>248</v>
+      </c>
+      <c r="K27" s="26">
+        <v>249</v>
+      </c>
+      <c r="L27" s="26">
+        <v>250</v>
+      </c>
+      <c r="M27" s="26">
+        <v>251</v>
+      </c>
+      <c r="N27" s="26">
+        <v>252</v>
+      </c>
+      <c r="O27" s="27">
+        <v>253</v>
+      </c>
+      <c r="P27" s="25">
+        <v>254</v>
+      </c>
+      <c r="Q27" s="26">
+        <v>255</v>
+      </c>
+      <c r="R27" s="23">
+        <v>256</v>
+      </c>
+      <c r="S27" s="23">
+        <v>257</v>
+      </c>
+      <c r="T27" s="23">
+        <v>258</v>
+      </c>
+      <c r="U27" s="23">
+        <v>259</v>
+      </c>
+      <c r="V27" s="23">
+        <v>260</v>
+      </c>
+      <c r="W27" s="23">
+        <v>261</v>
+      </c>
+      <c r="X27" s="23">
+        <v>262</v>
+      </c>
+      <c r="Y27" s="24">
+        <v>263</v>
+      </c>
+      <c r="Z27" s="31">
+        <v>264</v>
+      </c>
+      <c r="AA27" s="32">
+        <v>265</v>
+      </c>
+      <c r="AB27" s="32">
+        <v>266</v>
+      </c>
+      <c r="AC27" s="32">
+        <v>267</v>
+      </c>
+      <c r="AD27" s="32">
+        <v>268</v>
+      </c>
+      <c r="AE27" s="32">
+        <v>269</v>
+      </c>
+      <c r="AF27" s="33">
+        <v>270</v>
+      </c>
+      <c r="AG27" s="14">
+        <v>271</v>
+      </c>
+      <c r="AH27" s="37">
+        <v>272</v>
+      </c>
+      <c r="AI27" s="30">
+        <v>273</v>
+      </c>
+      <c r="AJ27" s="30">
+        <v>274</v>
+      </c>
+      <c r="AK27" s="30">
+        <v>275</v>
+      </c>
+      <c r="AL27" s="34">
+        <v>276</v>
+      </c>
+      <c r="AM27" s="15">
+        <v>277</v>
+      </c>
+      <c r="AN27" s="15">
+        <v>278</v>
+      </c>
+      <c r="AO27" s="15">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+      <c r="J28" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="40"/>
+      <c r="AH28" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI28" s="39"/>
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="39"/>
+      <c r="AL28" s="40"/>
+    </row>
+    <row r="29" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="41">
+        <v>35</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41">
+        <v>36</v>
+      </c>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41">
+        <v>37</v>
+      </c>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41">
+        <v>38</v>
+      </c>
+      <c r="AA30" s="41"/>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="41"/>
+      <c r="AD30" s="41"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="41"/>
+      <c r="AG30" s="41"/>
+      <c r="AH30" s="41">
+        <v>39</v>
+      </c>
+      <c r="AI30" s="41"/>
+      <c r="AJ30" s="41"/>
+      <c r="AK30" s="41"/>
+      <c r="AL30" s="41"/>
+      <c r="AM30" s="41"/>
+      <c r="AN30" s="41"/>
+      <c r="AO30" s="41"/>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="19">
+        <v>280</v>
+      </c>
+      <c r="C31" s="20">
+        <v>281</v>
+      </c>
+      <c r="D31" s="20">
+        <v>282</v>
+      </c>
+      <c r="E31" s="20">
+        <v>283</v>
+      </c>
+      <c r="F31" s="20">
+        <v>284</v>
+      </c>
+      <c r="G31" s="21">
+        <v>285</v>
+      </c>
+      <c r="H31" s="19">
+        <v>286</v>
+      </c>
+      <c r="I31" s="20">
+        <v>287</v>
+      </c>
+      <c r="J31" s="26">
+        <v>288</v>
+      </c>
+      <c r="K31" s="26">
+        <v>289</v>
+      </c>
+      <c r="L31" s="26">
+        <v>290</v>
+      </c>
+      <c r="M31" s="26">
+        <v>291</v>
+      </c>
+      <c r="N31" s="26">
+        <v>292</v>
+      </c>
+      <c r="O31" s="26">
+        <v>293</v>
+      </c>
+      <c r="P31" s="26">
+        <v>294</v>
+      </c>
+      <c r="Q31" s="27">
+        <v>295</v>
+      </c>
+      <c r="R31" s="22">
+        <v>296</v>
+      </c>
+      <c r="S31" s="23">
+        <v>297</v>
+      </c>
+      <c r="T31" s="23">
+        <v>298</v>
+      </c>
+      <c r="U31" s="23">
+        <v>299</v>
+      </c>
+      <c r="V31" s="23">
+        <v>300</v>
+      </c>
+      <c r="W31" s="23">
+        <v>301</v>
+      </c>
+      <c r="X31" s="24">
+        <v>302</v>
+      </c>
+      <c r="Y31" s="16">
+        <v>303</v>
+      </c>
+      <c r="Z31" s="31">
+        <v>304</v>
+      </c>
+      <c r="AA31" s="32">
+        <v>305</v>
+      </c>
+      <c r="AB31" s="32">
+        <v>306</v>
+      </c>
+      <c r="AC31" s="32">
+        <v>307</v>
+      </c>
+      <c r="AD31" s="33">
+        <v>308</v>
+      </c>
+      <c r="AE31" s="14">
+        <v>309</v>
+      </c>
+      <c r="AF31" s="14">
+        <v>310</v>
+      </c>
+      <c r="AG31" s="14">
+        <v>311</v>
+      </c>
+      <c r="AH31" s="37">
+        <v>312</v>
+      </c>
+      <c r="AI31" s="30">
+        <v>313</v>
+      </c>
+      <c r="AJ31" s="30">
+        <v>314</v>
+      </c>
+      <c r="AK31" s="30">
+        <v>315</v>
+      </c>
+      <c r="AL31" s="30">
+        <v>316</v>
+      </c>
+      <c r="AM31" s="34">
+        <v>317</v>
+      </c>
+      <c r="AN31" s="37">
+        <v>318</v>
+      </c>
+      <c r="AO31" s="30">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="40"/>
+      <c r="Z32" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="40"/>
+      <c r="AH32" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI32" s="39"/>
+      <c r="AJ32" s="39"/>
+      <c r="AK32" s="39"/>
+      <c r="AL32" s="39"/>
+      <c r="AM32" s="40"/>
+      <c r="AN32" s="38"/>
+      <c r="AO32" s="39"/>
+    </row>
+    <row r="33" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="41">
+        <v>40</v>
+      </c>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41">
+        <v>41</v>
+      </c>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41">
+        <v>42</v>
+      </c>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="41">
+        <v>43</v>
+      </c>
+      <c r="AA34" s="41"/>
+      <c r="AB34" s="41"/>
+      <c r="AC34" s="41"/>
+      <c r="AD34" s="41"/>
+      <c r="AE34" s="41"/>
+      <c r="AF34" s="41"/>
+      <c r="AG34" s="41"/>
+      <c r="AH34" s="41">
+        <v>44</v>
+      </c>
+      <c r="AI34" s="41"/>
+      <c r="AJ34" s="41"/>
+      <c r="AK34" s="41"/>
+      <c r="AL34" s="41"/>
+      <c r="AM34" s="41"/>
+      <c r="AN34" s="41"/>
+      <c r="AO34" s="41"/>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="20">
+        <v>320</v>
+      </c>
+      <c r="C35" s="20">
+        <v>321</v>
+      </c>
+      <c r="D35" s="20">
+        <v>322</v>
+      </c>
+      <c r="E35" s="20">
+        <v>323</v>
+      </c>
+      <c r="F35" s="20">
+        <v>324</v>
+      </c>
+      <c r="G35" s="20">
+        <v>325</v>
+      </c>
+      <c r="H35" s="20">
+        <v>326</v>
+      </c>
+      <c r="I35" s="21">
+        <v>327</v>
+      </c>
+      <c r="J35" s="25">
+        <v>328</v>
+      </c>
+      <c r="K35" s="26">
+        <v>329</v>
+      </c>
+      <c r="L35" s="26">
+        <v>330</v>
+      </c>
+      <c r="M35" s="26">
+        <v>331</v>
+      </c>
+      <c r="N35" s="26">
+        <v>332</v>
+      </c>
+      <c r="O35" s="26">
+        <v>333</v>
+      </c>
+      <c r="P35" s="27">
+        <v>334</v>
+      </c>
+      <c r="Q35" s="17">
+        <v>335</v>
+      </c>
+      <c r="R35" s="22">
+        <v>336</v>
+      </c>
+      <c r="S35" s="23">
+        <v>337</v>
+      </c>
+      <c r="T35" s="23">
+        <v>338</v>
+      </c>
+      <c r="U35" s="23">
+        <v>339</v>
+      </c>
+      <c r="V35" s="24">
+        <v>340</v>
+      </c>
+      <c r="W35" s="16">
+        <v>341</v>
+      </c>
+      <c r="X35" s="16">
+        <v>342</v>
+      </c>
+      <c r="Y35" s="16">
+        <v>343</v>
+      </c>
+      <c r="Z35" s="31">
+        <v>344</v>
+      </c>
+      <c r="AA35" s="32">
+        <v>345</v>
+      </c>
+      <c r="AB35" s="32">
+        <v>346</v>
+      </c>
+      <c r="AC35" s="32">
+        <v>347</v>
+      </c>
+      <c r="AD35" s="32">
+        <v>348</v>
+      </c>
+      <c r="AE35" s="33">
+        <v>349</v>
+      </c>
+      <c r="AF35" s="31">
+        <v>350</v>
+      </c>
+      <c r="AG35" s="32">
+        <v>351</v>
+      </c>
+      <c r="AH35" s="30">
+        <v>352</v>
+      </c>
+      <c r="AI35" s="30">
+        <v>353</v>
+      </c>
+      <c r="AJ35" s="30">
+        <v>354</v>
+      </c>
+      <c r="AK35" s="30">
+        <v>355</v>
+      </c>
+      <c r="AL35" s="30">
+        <v>356</v>
+      </c>
+      <c r="AM35" s="30">
+        <v>357</v>
+      </c>
+      <c r="AN35" s="30">
+        <v>358</v>
+      </c>
+      <c r="AO35" s="34">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="R36" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="40"/>
+      <c r="Z36" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="39"/>
+      <c r="AD36" s="39"/>
+      <c r="AE36" s="40"/>
+      <c r="AF36" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG36" s="39"/>
+      <c r="AH36" s="39"/>
+      <c r="AI36" s="39"/>
+      <c r="AJ36" s="39"/>
+      <c r="AK36" s="39"/>
+      <c r="AL36" s="39"/>
+      <c r="AM36" s="39"/>
+      <c r="AN36" s="39"/>
+      <c r="AO36" s="40"/>
+    </row>
+    <row r="37" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="41">
+        <v>45</v>
+      </c>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41">
+        <v>46</v>
+      </c>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41">
+        <v>47</v>
+      </c>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="41"/>
+      <c r="W38" s="41"/>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="41"/>
+      <c r="Z38" s="41">
+        <v>48</v>
+      </c>
+      <c r="AA38" s="41"/>
+      <c r="AB38" s="41"/>
+      <c r="AC38" s="41"/>
+      <c r="AD38" s="41"/>
+      <c r="AE38" s="41"/>
+      <c r="AF38" s="41"/>
+      <c r="AG38" s="41"/>
+      <c r="AH38" s="41">
+        <v>49</v>
+      </c>
+      <c r="AI38" s="41"/>
+      <c r="AJ38" s="41"/>
+      <c r="AK38" s="41"/>
+      <c r="AL38" s="41"/>
+      <c r="AM38" s="41"/>
+      <c r="AN38" s="41"/>
+      <c r="AO38" s="41"/>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="19">
+        <v>360</v>
+      </c>
+      <c r="C39" s="20">
+        <v>361</v>
+      </c>
+      <c r="D39" s="20">
+        <v>362</v>
+      </c>
+      <c r="E39" s="20">
+        <v>363</v>
+      </c>
+      <c r="F39" s="20">
+        <v>364</v>
+      </c>
+      <c r="G39" s="20">
+        <v>365</v>
+      </c>
+      <c r="H39" s="21">
+        <v>366</v>
+      </c>
+      <c r="I39" s="18">
+        <v>367</v>
+      </c>
+      <c r="J39" s="25">
+        <v>368</v>
+      </c>
+      <c r="K39" s="26">
+        <v>369</v>
+      </c>
+      <c r="L39" s="26">
+        <v>370</v>
+      </c>
+      <c r="M39" s="26">
+        <v>371</v>
+      </c>
+      <c r="N39" s="27">
+        <v>372</v>
+      </c>
+      <c r="O39" s="17">
+        <v>373</v>
+      </c>
+      <c r="P39" s="17">
+        <v>374</v>
+      </c>
+      <c r="Q39" s="17">
+        <v>375</v>
+      </c>
+      <c r="R39" s="22">
+        <v>376</v>
+      </c>
+      <c r="S39" s="23">
+        <v>377</v>
+      </c>
+      <c r="T39" s="23">
+        <v>378</v>
+      </c>
+      <c r="U39" s="23">
+        <v>379</v>
+      </c>
+      <c r="V39" s="23">
+        <v>380</v>
+      </c>
+      <c r="W39" s="24">
+        <v>381</v>
+      </c>
+      <c r="X39" s="22">
+        <v>382</v>
+      </c>
+      <c r="Y39" s="23">
+        <v>383</v>
+      </c>
+      <c r="Z39" s="32">
+        <v>384</v>
+      </c>
+      <c r="AA39" s="32">
+        <v>385</v>
+      </c>
+      <c r="AB39" s="32">
+        <v>386</v>
+      </c>
+      <c r="AC39" s="32">
+        <v>387</v>
+      </c>
+      <c r="AD39" s="32">
+        <v>388</v>
+      </c>
+      <c r="AE39" s="32">
+        <v>389</v>
+      </c>
+      <c r="AF39" s="32">
+        <v>390</v>
+      </c>
+      <c r="AG39" s="33">
+        <v>391</v>
+      </c>
+      <c r="AH39" s="37">
+        <v>392</v>
+      </c>
+      <c r="AI39" s="30">
+        <v>393</v>
+      </c>
+      <c r="AJ39" s="30">
+        <v>394</v>
+      </c>
+      <c r="AK39" s="30">
+        <v>395</v>
+      </c>
+      <c r="AL39" s="30">
+        <v>396</v>
+      </c>
+      <c r="AM39" s="30">
+        <v>397</v>
+      </c>
+      <c r="AN39" s="34">
+        <v>398</v>
+      </c>
+      <c r="AO39" s="15">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="40"/>
+      <c r="J40" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="40"/>
+      <c r="R40" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="39"/>
+      <c r="AA40" s="39"/>
+      <c r="AB40" s="39"/>
+      <c r="AC40" s="39"/>
+      <c r="AD40" s="39"/>
+      <c r="AE40" s="39"/>
+      <c r="AF40" s="39"/>
+      <c r="AG40" s="40"/>
+      <c r="AH40" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI40" s="39"/>
+      <c r="AJ40" s="39"/>
+      <c r="AK40" s="39"/>
+      <c r="AL40" s="39"/>
+      <c r="AM40" s="39"/>
+      <c r="AN40" s="40"/>
+    </row>
+    <row r="41" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="41">
+        <v>50</v>
+      </c>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41">
+        <v>51</v>
+      </c>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41">
+        <v>52</v>
+      </c>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="41">
+        <v>53</v>
+      </c>
+      <c r="AA42" s="41"/>
+      <c r="AB42" s="41"/>
+      <c r="AC42" s="41"/>
+      <c r="AD42" s="41"/>
+      <c r="AE42" s="41"/>
+      <c r="AF42" s="41"/>
+      <c r="AG42" s="41"/>
+      <c r="AH42" s="41">
+        <v>54</v>
+      </c>
+      <c r="AI42" s="41"/>
+      <c r="AJ42" s="41"/>
+      <c r="AK42" s="41"/>
+      <c r="AL42" s="41"/>
+      <c r="AM42" s="41"/>
+      <c r="AN42" s="41"/>
+      <c r="AO42" s="41"/>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="19">
+        <v>400</v>
+      </c>
+      <c r="C43" s="20">
+        <v>401</v>
+      </c>
+      <c r="D43" s="20">
+        <v>402</v>
+      </c>
+      <c r="E43" s="20">
+        <v>403</v>
+      </c>
+      <c r="F43" s="21">
+        <v>404</v>
+      </c>
+      <c r="G43" s="18">
+        <v>405</v>
+      </c>
+      <c r="H43" s="18">
+        <v>406</v>
+      </c>
+      <c r="I43" s="18">
+        <v>407</v>
+      </c>
+      <c r="J43" s="25">
+        <v>408</v>
+      </c>
+      <c r="K43" s="26">
+        <v>409</v>
+      </c>
+      <c r="L43" s="26">
+        <v>410</v>
+      </c>
+      <c r="M43" s="26">
+        <v>411</v>
+      </c>
+      <c r="N43" s="26">
+        <v>412</v>
+      </c>
+      <c r="O43" s="27">
+        <v>413</v>
+      </c>
+      <c r="P43" s="25">
+        <v>414</v>
+      </c>
+      <c r="Q43" s="26">
+        <v>415</v>
+      </c>
+      <c r="R43" s="23">
+        <v>416</v>
+      </c>
+      <c r="S43" s="23">
+        <v>417</v>
+      </c>
+      <c r="T43" s="23">
+        <v>418</v>
+      </c>
+      <c r="U43" s="23">
+        <v>419</v>
+      </c>
+      <c r="V43" s="23">
+        <v>420</v>
+      </c>
+      <c r="W43" s="23">
+        <v>421</v>
+      </c>
+      <c r="X43" s="23">
+        <v>422</v>
+      </c>
+      <c r="Y43" s="24">
+        <v>423</v>
+      </c>
+      <c r="Z43" s="14">
+        <v>424</v>
+      </c>
+      <c r="AA43" s="14">
+        <v>425</v>
+      </c>
+      <c r="AB43" s="14">
+        <v>426</v>
+      </c>
+      <c r="AC43" s="14">
+        <v>427</v>
+      </c>
+      <c r="AD43" s="14">
+        <v>428</v>
+      </c>
+      <c r="AE43" s="14">
+        <v>429</v>
+      </c>
+      <c r="AF43" s="14">
+        <v>430</v>
+      </c>
+      <c r="AG43" s="14">
+        <v>431</v>
+      </c>
+      <c r="AH43" s="15">
+        <v>432</v>
+      </c>
+      <c r="AI43" s="15">
+        <v>433</v>
+      </c>
+      <c r="AJ43" s="15">
+        <v>434</v>
+      </c>
+      <c r="AK43" s="15">
+        <v>435</v>
+      </c>
+      <c r="AL43" s="15">
+        <v>436</v>
+      </c>
+      <c r="AM43" s="15">
+        <v>437</v>
+      </c>
+      <c r="AN43" s="15">
+        <v>438</v>
+      </c>
+      <c r="AO43" s="15">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="40"/>
+      <c r="J44" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="40"/>
+    </row>
+    <row r="45" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="42">
+        <v>55</v>
+      </c>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+    </row>
+    <row r="47" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="19">
+        <v>440</v>
+      </c>
+      <c r="C47" s="20">
+        <v>441</v>
+      </c>
+      <c r="D47" s="20">
+        <v>442</v>
+      </c>
+      <c r="E47" s="20">
+        <v>443</v>
+      </c>
+      <c r="F47" s="20">
+        <v>444</v>
+      </c>
+      <c r="G47" s="20">
+        <v>445</v>
+      </c>
+      <c r="H47" s="20">
+        <v>446</v>
+      </c>
+      <c r="I47" s="21">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="40"/>
+    </row>
+    <row r="49" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="353" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="363" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="364" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="365" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="366" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="367" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="368" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="369" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="373" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="375" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="376" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="377" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="378" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="379" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="380" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="381" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="382" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="383" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="384" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="385" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="386" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="387" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="388" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="389" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="390" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="391" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="392" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="393" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="394" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="395" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="396" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="397" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="398" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="399" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="400" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="401" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="402" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="403" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="404" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="405" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="406" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="407" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="408" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="409" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="410" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="411" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="412" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="413" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="414" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="415" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="416" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="417" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="418" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="419" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="420" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="421" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="422" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="423" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="424" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="425" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="426" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="427" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="428" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="429" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="430" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="431" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="432" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="433" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="434" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="435" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="436" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="437" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="438" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="439" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="440" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="441" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="442" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="443" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="444" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="445" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="446" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="447" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="448" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="449" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="450" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="451" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="452" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="453" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="454" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="455" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="456" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="457" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="458" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="459" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="460" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="461" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="462" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="463" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="464" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="465" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="466" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="467" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="468" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="469" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="470" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="471" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="472" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="473" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="474" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="475" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="476" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="477" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="478" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="479" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="480" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="481" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="482" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="483" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="484" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="485" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="486" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="487" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="488" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="489" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="490" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="491" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="492" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="493" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="494" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="495" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="496" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="497" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="498" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="499" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="500" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="501" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="502" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="503" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="504" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="505" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="506" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="507" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="508" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="509" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="510" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="511" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="512" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="513" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="514" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="515" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="516" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="517" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="518" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="519" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="520" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="521" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="522" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="111">
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="P44:Y44"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="J42:Q42"/>
+    <mergeCell ref="R42:Y42"/>
+    <mergeCell ref="Z42:AG42"/>
+    <mergeCell ref="AH42:AO42"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="J38:Q38"/>
+    <mergeCell ref="R38:Y38"/>
+    <mergeCell ref="Z38:AG38"/>
+    <mergeCell ref="AH38:AO38"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="R40:W40"/>
+    <mergeCell ref="X40:AG40"/>
+    <mergeCell ref="AH40:AN40"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="R34:Y34"/>
+    <mergeCell ref="Z34:AG34"/>
+    <mergeCell ref="AH34:AO34"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="J36:P36"/>
+    <mergeCell ref="R36:V36"/>
+    <mergeCell ref="Z36:AE36"/>
+    <mergeCell ref="AF36:AO36"/>
+    <mergeCell ref="AN32:AO32"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="R30:Y30"/>
+    <mergeCell ref="Z30:AG30"/>
+    <mergeCell ref="AH30:AO30"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:Q32"/>
+    <mergeCell ref="R32:X32"/>
+    <mergeCell ref="Z32:AD32"/>
+    <mergeCell ref="AH32:AM32"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="P28:Y28"/>
+    <mergeCell ref="Z28:AF28"/>
+    <mergeCell ref="AH28:AL28"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="R26:Y26"/>
+    <mergeCell ref="Z26:AG26"/>
+    <mergeCell ref="AH26:AO26"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="X24:AG24"/>
+    <mergeCell ref="AH24:AN24"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R22:Y22"/>
+    <mergeCell ref="Z22:AG22"/>
+    <mergeCell ref="AH22:AO22"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="AH16:AM16"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="AN16:AO16"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:Y18"/>
+    <mergeCell ref="Z18:AG18"/>
+    <mergeCell ref="AH18:AO18"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="R20:V20"/>
+    <mergeCell ref="Z20:AE20"/>
+    <mergeCell ref="AF20:AO20"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:Q16"/>
+    <mergeCell ref="R16:X16"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:Y14"/>
+    <mergeCell ref="Z14:AG14"/>
+    <mergeCell ref="AH14:AO14"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="R6:Y6"/>
+    <mergeCell ref="Z6:AG6"/>
+    <mergeCell ref="AH6:AO6"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="J10:Q10"/>
+    <mergeCell ref="R10:Y10"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="P12:Y12"/>
+    <mergeCell ref="Z12:AF12"/>
+    <mergeCell ref="AH12:AL12"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="R4:AA4"/>
+    <mergeCell ref="AF4:AO4"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="X8:AG8"/>
+    <mergeCell ref="AH8:AN8"/>
+    <mergeCell ref="Z10:AG10"/>
+    <mergeCell ref="AH10:AO10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:V15"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -787,129 +4483,143 @@
     <col min="5" max="5" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="23.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="14" max="14" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
-        <v>9</v>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B2" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+    </row>
+    <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="44" t="s">
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="O3" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="10" t="s">
+      <c r="S3" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="11"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B4" s="45"/>
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="S4" s="11"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V4" s="45"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
         <v>8</v>
@@ -942,74 +4652,89 @@
         <v>8</v>
       </c>
       <c r="M5" s="2">
+        <v>6</v>
+      </c>
+      <c r="N5" s="2">
+        <v>10</v>
+      </c>
+      <c r="O5" s="10">
         <v>8</v>
       </c>
-      <c r="N5" s="2">
+      <c r="P5" s="10">
         <v>8</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q5" s="10">
+        <v>6</v>
+      </c>
+      <c r="R5" s="10">
+        <v>10</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="36">
         <v>16</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>64</v>
-      </c>
-      <c r="R5" s="2">
+      <c r="U5" s="2">
         <v>8</v>
       </c>
-      <c r="S5" s="2">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="V5" s="2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="48">
         <v>1</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="2">
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49">
+        <v>3</v>
+      </c>
+      <c r="J6" s="50"/>
+      <c r="K6" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="35">
         <v>2</v>
       </c>
-      <c r="J6" s="9">
-        <v>2</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="2">
-        <v>8</v>
-      </c>
-      <c r="R6" s="2">
+      <c r="U6" s="2">
         <v>1</v>
       </c>
-      <c r="S6" s="2">
-        <v>51</v>
-      </c>
+      <c r="V6" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="G3:G4"/>
+  <mergeCells count="22">
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="K6:S6"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="V3:V4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
@@ -1019,7 +4744,11 @@
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1027,152 +4756,144 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O5"/>
+  <dimension ref="B2:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="10" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="K3" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="L3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="54"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C5" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G5" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H5" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I5" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J5" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K5" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L5" s="2">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="M5" s="2">
         <v>1</v>
       </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
-      <c r="O5" s="7">
+      <c r="N5" s="7">
         <v>512</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B2:O2"/>
+  <mergeCells count="12">
+    <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
@@ -1183,15 +4904,14 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="N3:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C19"/>
   <sheetViews>
@@ -1208,138 +4928,138 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Flash_Data_Table.xlsx
+++ b/Flash_Data_Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Data in a Partition" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="112">
   <si>
     <t>0x5A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,10 +246,6 @@
   </si>
   <si>
     <t>u8StopFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u8ChannelManual</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -302,10 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u8ChannelManual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>u16WateringTimeManual[0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,15 +331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u8ChannelAuto
-[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u8ChannelAuto[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>u8StartHour[0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,10 +347,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u8ChannelAuto[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>u8StartHour[1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,10 +363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u8ChannelAuto[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>u8StartHour[2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,10 +379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u8ChannelAuto[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>u8StartHour[3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,10 +395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u8ChannelAuto[4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>u8StartHour[4]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,10 +408,6 @@
   </si>
   <si>
     <t>u8DaysApart[5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u8ChannelAuto[5]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -598,7 +561,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -757,11 +720,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -874,16 +855,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -895,48 +867,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -944,6 +913,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1231,8 +1224,8 @@
   </sheetPr>
   <dimension ref="A1:AO484"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AO24"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1249,62 +1242,62 @@
     <row r="1" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="46">
+        <v>74</v>
+      </c>
+      <c r="B2" s="42">
         <v>0</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
         <v>1</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="46">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="42">
         <v>2</v>
       </c>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="45">
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="38">
         <v>3</v>
       </c>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="46">
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="42">
         <v>4</v>
       </c>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="18">
         <v>0</v>
@@ -1348,10 +1341,10 @@
       <c r="O3" s="27">
         <v>13</v>
       </c>
-      <c r="P3" s="27">
+      <c r="P3" s="60">
         <v>14</v>
       </c>
-      <c r="Q3" s="36">
+      <c r="Q3" s="58">
         <v>15</v>
       </c>
       <c r="R3" s="21">
@@ -1429,118 +1422,116 @@
     </row>
     <row r="4" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="35" t="s">
+      <c r="P4" s="61"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="P4" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="44"/>
-      <c r="AF4" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="44"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="41"/>
+      <c r="AF4" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40"/>
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="41"/>
     </row>
     <row r="5" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="38">
         <v>5</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38">
         <v>6</v>
       </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="46">
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="42">
         <v>7</v>
       </c>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46">
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42">
         <v>8</v>
       </c>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="45">
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="38">
         <v>9</v>
       </c>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="45"/>
-      <c r="AK6" s="45"/>
-      <c r="AL6" s="45"/>
-      <c r="AM6" s="45"/>
-      <c r="AN6" s="45"/>
-      <c r="AO6" s="45"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="18">
         <v>40</v>
@@ -1563,7 +1554,7 @@
       <c r="H7" s="20">
         <v>46</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="62">
         <v>47</v>
       </c>
       <c r="J7" s="24">
@@ -1659,125 +1650,121 @@
       <c r="AN7" s="32">
         <v>78</v>
       </c>
-      <c r="AO7" s="39">
+      <c r="AO7" s="63">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="41"/>
+      <c r="R8" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="35" t="s">
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="J8" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="44"/>
-      <c r="R8" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI8" s="43"/>
-      <c r="AJ8" s="43"/>
-      <c r="AK8" s="43"/>
-      <c r="AL8" s="43"/>
-      <c r="AM8" s="43"/>
-      <c r="AN8" s="44"/>
-      <c r="AO8" s="35" t="s">
-        <v>87</v>
-      </c>
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="40"/>
+      <c r="AK8" s="40"/>
+      <c r="AL8" s="40"/>
+      <c r="AM8" s="40"/>
+      <c r="AN8" s="41"/>
+      <c r="AO8" s="61"/>
     </row>
     <row r="9" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="38">
         <v>10</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46">
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="42">
         <v>11</v>
       </c>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46">
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42">
         <v>12</v>
       </c>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="45">
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="38">
         <v>13</v>
       </c>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="45"/>
-      <c r="AH10" s="45">
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="38"/>
+      <c r="AH10" s="38">
         <v>14</v>
       </c>
-      <c r="AI10" s="45"/>
-      <c r="AJ10" s="45"/>
-      <c r="AK10" s="45"/>
-      <c r="AL10" s="45"/>
-      <c r="AM10" s="45"/>
-      <c r="AN10" s="45"/>
-      <c r="AO10" s="45"/>
+      <c r="AI10" s="38"/>
+      <c r="AJ10" s="38"/>
+      <c r="AK10" s="38"/>
+      <c r="AL10" s="38"/>
+      <c r="AM10" s="38"/>
+      <c r="AN10" s="38"/>
+      <c r="AO10" s="38"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="18">
         <v>80</v>
@@ -1872,7 +1859,7 @@
       <c r="AF11" s="31">
         <v>110</v>
       </c>
-      <c r="AG11" s="40">
+      <c r="AG11" s="64">
         <v>111</v>
       </c>
       <c r="AH11" s="33">
@@ -1902,114 +1889,112 @@
     </row>
     <row r="12" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
-      <c r="J12" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="43"/>
-      <c r="AE12" s="43"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH12" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI12" s="43"/>
-      <c r="AJ12" s="43"/>
-      <c r="AK12" s="43"/>
-      <c r="AL12" s="44"/>
+        <v>76</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="J12" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI12" s="40"/>
+      <c r="AJ12" s="40"/>
+      <c r="AK12" s="40"/>
+      <c r="AL12" s="41"/>
     </row>
     <row r="13" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="42">
         <v>15</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46">
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42">
         <v>16</v>
       </c>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="45">
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="38">
         <v>17</v>
       </c>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45">
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38">
         <v>18</v>
       </c>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="45"/>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="45">
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38">
         <v>19</v>
       </c>
-      <c r="AI14" s="45"/>
-      <c r="AJ14" s="45"/>
-      <c r="AK14" s="45"/>
-      <c r="AL14" s="45"/>
-      <c r="AM14" s="45"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
+      <c r="AI14" s="38"/>
+      <c r="AJ14" s="38"/>
+      <c r="AK14" s="38"/>
+      <c r="AL14" s="38"/>
+      <c r="AM14" s="38"/>
+      <c r="AN14" s="38"/>
+      <c r="AO14" s="38"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B15" s="18">
         <v>120</v>
@@ -2080,7 +2065,7 @@
       <c r="X15" s="23">
         <v>142</v>
       </c>
-      <c r="Y15" s="41">
+      <c r="Y15" s="65">
         <v>143</v>
       </c>
       <c r="Z15" s="29">
@@ -2134,117 +2119,115 @@
     </row>
     <row r="16" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z16" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="43"/>
-      <c r="AC16" s="43"/>
-      <c r="AD16" s="44"/>
-      <c r="AH16" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI16" s="43"/>
-      <c r="AJ16" s="43"/>
-      <c r="AK16" s="43"/>
-      <c r="AL16" s="43"/>
-      <c r="AM16" s="44"/>
-      <c r="AN16" s="42"/>
-      <c r="AO16" s="43"/>
+        <v>76</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="41"/>
+      <c r="AH16" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI16" s="40"/>
+      <c r="AJ16" s="40"/>
+      <c r="AK16" s="40"/>
+      <c r="AL16" s="40"/>
+      <c r="AM16" s="41"/>
+      <c r="AN16" s="39"/>
+      <c r="AO16" s="40"/>
     </row>
     <row r="17" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="42">
         <v>20</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="45">
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="38">
         <v>21</v>
       </c>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45">
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38">
         <v>22</v>
       </c>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45">
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38">
         <v>23</v>
       </c>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="45"/>
-      <c r="AD18" s="45"/>
-      <c r="AE18" s="45"/>
-      <c r="AF18" s="45"/>
-      <c r="AG18" s="45"/>
-      <c r="AH18" s="45">
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38">
         <v>24</v>
       </c>
-      <c r="AI18" s="45"/>
-      <c r="AJ18" s="45"/>
-      <c r="AK18" s="45"/>
-      <c r="AL18" s="45"/>
-      <c r="AM18" s="45"/>
-      <c r="AN18" s="45"/>
-      <c r="AO18" s="45"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="38"/>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B19" s="19">
         <v>160</v>
@@ -2291,7 +2274,7 @@
       <c r="P19" s="26">
         <v>174</v>
       </c>
-      <c r="Q19" s="27">
+      <c r="Q19" s="36">
         <v>175</v>
       </c>
       <c r="R19" s="21">
@@ -2369,117 +2352,115 @@
     </row>
     <row r="20" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="R20" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="44"/>
-      <c r="Z20" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="43"/>
-      <c r="AC20" s="43"/>
-      <c r="AD20" s="43"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG20" s="43"/>
-      <c r="AH20" s="43"/>
-      <c r="AI20" s="43"/>
-      <c r="AJ20" s="43"/>
-      <c r="AK20" s="43"/>
-      <c r="AL20" s="43"/>
-      <c r="AM20" s="43"/>
-      <c r="AN20" s="43"/>
-      <c r="AO20" s="44"/>
+        <v>76</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="41"/>
+      <c r="Z20" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG20" s="40"/>
+      <c r="AH20" s="40"/>
+      <c r="AI20" s="40"/>
+      <c r="AJ20" s="40"/>
+      <c r="AK20" s="40"/>
+      <c r="AL20" s="40"/>
+      <c r="AM20" s="40"/>
+      <c r="AN20" s="40"/>
+      <c r="AO20" s="41"/>
     </row>
     <row r="21" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="38">
         <v>25</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45">
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38">
         <v>26</v>
       </c>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45">
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38">
         <v>27</v>
       </c>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45">
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38">
         <v>28</v>
       </c>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
-      <c r="AH22" s="45">
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="38"/>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="38"/>
+      <c r="AH22" s="38">
         <v>29</v>
       </c>
-      <c r="AI22" s="45"/>
-      <c r="AJ22" s="45"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="45"/>
-      <c r="AN22" s="45"/>
-      <c r="AO22" s="45"/>
+      <c r="AI22" s="38"/>
+      <c r="AJ22" s="38"/>
+      <c r="AK22" s="38"/>
+      <c r="AL22" s="38"/>
+      <c r="AM22" s="38"/>
+      <c r="AN22" s="38"/>
+      <c r="AO22" s="38"/>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B23" s="18">
         <v>200</v>
@@ -2502,7 +2483,7 @@
       <c r="H23" s="20">
         <v>206</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="62">
         <v>207</v>
       </c>
       <c r="J23" s="24">
@@ -2604,57 +2585,55 @@
     </row>
     <row r="24" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="J24" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="44"/>
-      <c r="R24" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="43"/>
-      <c r="AC24" s="43"/>
-      <c r="AD24" s="43"/>
-      <c r="AE24" s="43"/>
-      <c r="AF24" s="43"/>
-      <c r="AG24" s="44"/>
-      <c r="AH24" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI24" s="43"/>
-      <c r="AJ24" s="43"/>
-      <c r="AK24" s="43"/>
-      <c r="AL24" s="43"/>
-      <c r="AM24" s="43"/>
-      <c r="AN24" s="43"/>
-      <c r="AO24" s="44"/>
+        <v>76</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="41"/>
+      <c r="R24" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="40"/>
+      <c r="AG24" s="41"/>
+      <c r="AH24" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI24" s="40"/>
+      <c r="AJ24" s="40"/>
+      <c r="AK24" s="40"/>
+      <c r="AL24" s="40"/>
+      <c r="AM24" s="40"/>
+      <c r="AN24" s="40"/>
+      <c r="AO24" s="41"/>
     </row>
     <row r="25" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3118,16 +3097,40 @@
     <row r="484" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="AH22:AO22"/>
-    <mergeCell ref="AH24:AO24"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="X24:AG24"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R22:Y22"/>
-    <mergeCell ref="Z22:AG22"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="X8:AG8"/>
+    <mergeCell ref="AH8:AN8"/>
+    <mergeCell ref="Z10:AG10"/>
+    <mergeCell ref="AH10:AO10"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:Y14"/>
+    <mergeCell ref="Z14:AG14"/>
+    <mergeCell ref="AH14:AO14"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="J10:Q10"/>
+    <mergeCell ref="R10:Y10"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="P12:Y12"/>
+    <mergeCell ref="Z12:AF12"/>
+    <mergeCell ref="AH12:AL12"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="R6:Y6"/>
+    <mergeCell ref="Z6:AG6"/>
+    <mergeCell ref="AH6:AO6"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="R4:AA4"/>
+    <mergeCell ref="AF4:AO4"/>
     <mergeCell ref="Z16:AD16"/>
     <mergeCell ref="AH16:AM16"/>
     <mergeCell ref="B20:I20"/>
@@ -3144,40 +3147,16 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="H16:Q16"/>
     <mergeCell ref="R16:X16"/>
-    <mergeCell ref="Z2:AG2"/>
-    <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="J6:Q6"/>
-    <mergeCell ref="R6:Y6"/>
-    <mergeCell ref="Z6:AG6"/>
-    <mergeCell ref="AH6:AO6"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="Z10:AG10"/>
-    <mergeCell ref="AH10:AO10"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:Y14"/>
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="AH14:AO14"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="J10:Q10"/>
-    <mergeCell ref="R10:Y10"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="P12:Y12"/>
-    <mergeCell ref="Z12:AF12"/>
-    <mergeCell ref="AH12:AL12"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="R4:AA4"/>
-    <mergeCell ref="AF4:AO4"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="X8:AG8"/>
-    <mergeCell ref="AH8:AN8"/>
+    <mergeCell ref="AH22:AO22"/>
+    <mergeCell ref="AH24:AO24"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="X24:AG24"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R22:Y22"/>
+    <mergeCell ref="Z22:AG22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3190,8 +3169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3202,11 +3181,10 @@
     <col min="4" max="4" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="23.25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.125" style="1" bestFit="1" customWidth="1"/>
@@ -3217,101 +3195,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
     </row>
     <row r="3" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="53" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="51" t="s">
+      <c r="N3" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" s="49" t="s">
+      <c r="P3" s="53" t="s">
         <v>5</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="R3" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" s="53" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="50"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
       <c r="Q4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="50"/>
+      <c r="R4" s="51"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -3329,7 +3307,7 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>1</v>
       </c>
       <c r="H5" s="8">
@@ -3344,7 +3322,7 @@
       <c r="K5" s="2">
         <v>7</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="8">
         <v>1</v>
       </c>
       <c r="M5" s="2">
@@ -3373,25 +3351,25 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="44">
         <v>1</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54">
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45">
         <v>3</v>
       </c>
-      <c r="J6" s="55"/>
-      <c r="K6" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="55"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="46"/>
       <c r="Q6" s="2">
         <v>1</v>
       </c>
@@ -3405,11 +3383,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="L3:L4"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="B3:B4"/>
@@ -3424,6 +3397,11 @@
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="L3:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3438,7 +3416,7 @@
   </sheetPr>
   <dimension ref="B2:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V5" sqref="B3:V5"/>
     </sheetView>
   </sheetViews>
@@ -3454,84 +3432,84 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="M3" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="N3" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="O3" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="P3" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q3" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="R3" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="S3" s="49" t="s">
-        <v>120</v>
+      <c r="L3" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="O3" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q3" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="R3" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="S3" s="53" t="s">
+        <v>111</v>
       </c>
       <c r="T3" s="8" t="s">
         <v>6</v>
@@ -3539,36 +3517,36 @@
       <c r="U3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="60" t="s">
+      <c r="V3" s="56" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
       <c r="T4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61"/>
+      <c r="V4" s="57"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -3637,11 +3615,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
@@ -3657,6 +3630,11 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="V3:V4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Flash_Data_Table.xlsx
+++ b/Flash_Data_Table.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="111">
   <si>
     <t>0x5A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,14 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u16WateringTimeManual[0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u16WateringTimeManual[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>u8DaysApart
 [0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,6 +452,10 @@
   </si>
   <si>
     <t>Partition16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u16WateringTimeManual</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -742,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -855,57 +851,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -915,28 +935,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1225,7 +1230,7 @@
   <dimension ref="A1:AO484"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1242,62 +1247,62 @@
     <row r="1" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="42">
+        <v>72</v>
+      </c>
+      <c r="B2" s="50">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50">
         <v>1</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="42">
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="50">
         <v>2</v>
       </c>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="38">
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="49">
         <v>3</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="42">
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="51">
         <v>4</v>
       </c>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
-      <c r="AO2" s="42"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="18">
         <v>0</v>
@@ -1341,10 +1346,10 @@
       <c r="O3" s="27">
         <v>13</v>
       </c>
-      <c r="P3" s="60">
+      <c r="P3" s="40">
         <v>14</v>
       </c>
-      <c r="Q3" s="58">
+      <c r="Q3" s="38">
         <v>15</v>
       </c>
       <c r="R3" s="21">
@@ -1389,149 +1394,147 @@
       <c r="AE3" s="13">
         <v>29</v>
       </c>
-      <c r="AF3" s="29">
+      <c r="AF3" s="66">
         <v>30</v>
       </c>
-      <c r="AG3" s="30">
+      <c r="AG3" s="66">
         <v>31</v>
       </c>
-      <c r="AH3" s="28">
+      <c r="AH3" s="67">
         <v>32</v>
       </c>
-      <c r="AI3" s="28">
+      <c r="AI3" s="67">
         <v>33</v>
       </c>
-      <c r="AJ3" s="28">
+      <c r="AJ3" s="67">
         <v>34</v>
       </c>
-      <c r="AK3" s="28">
+      <c r="AK3" s="67">
         <v>35</v>
       </c>
-      <c r="AL3" s="28">
+      <c r="AL3" s="67">
         <v>36</v>
       </c>
-      <c r="AM3" s="28">
+      <c r="AM3" s="67">
         <v>37</v>
       </c>
-      <c r="AN3" s="28">
+      <c r="AN3" s="67">
         <v>38</v>
       </c>
-      <c r="AO3" s="32">
+      <c r="AO3" s="67">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="39" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="48"/>
       <c r="N4" s="10" t="s">
         <v>60</v>
       </c>
       <c r="O4" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="41"/>
-      <c r="AF4" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="48"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="68"/>
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="68"/>
+      <c r="AO4" s="68"/>
     </row>
     <row r="5" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="49">
         <v>5</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49">
         <v>6</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="42">
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="50">
         <v>7</v>
       </c>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42">
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50">
         <v>8</v>
       </c>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="38">
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="49">
         <v>9</v>
       </c>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49"/>
+      <c r="AL6" s="49"/>
+      <c r="AM6" s="49"/>
+      <c r="AN6" s="49"/>
+      <c r="AO6" s="49"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="18">
         <v>40</v>
@@ -1554,7 +1557,7 @@
       <c r="H7" s="20">
         <v>46</v>
       </c>
-      <c r="I7" s="62">
+      <c r="I7" s="42">
         <v>47</v>
       </c>
       <c r="J7" s="24">
@@ -1650,121 +1653,121 @@
       <c r="AN7" s="32">
         <v>78</v>
       </c>
-      <c r="AO7" s="63">
+      <c r="AO7" s="43">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="48"/>
+      <c r="R8" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="39" t="s">
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="41"/>
-      <c r="R8" s="39" t="s">
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="40"/>
-      <c r="AL8" s="40"/>
-      <c r="AM8" s="40"/>
-      <c r="AN8" s="41"/>
-      <c r="AO8" s="61"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="47"/>
+      <c r="AK8" s="47"/>
+      <c r="AL8" s="47"/>
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="48"/>
+      <c r="AO8" s="41"/>
     </row>
     <row r="9" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="49">
         <v>10</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="42">
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50">
         <v>11</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42">
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50">
         <v>12</v>
       </c>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="38">
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="49">
         <v>13</v>
       </c>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="38"/>
-      <c r="AG10" s="38"/>
-      <c r="AH10" s="38">
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49">
         <v>14</v>
       </c>
-      <c r="AI10" s="38"/>
-      <c r="AJ10" s="38"/>
-      <c r="AK10" s="38"/>
-      <c r="AL10" s="38"/>
-      <c r="AM10" s="38"/>
-      <c r="AN10" s="38"/>
-      <c r="AO10" s="38"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="49"/>
+      <c r="AK10" s="49"/>
+      <c r="AL10" s="49"/>
+      <c r="AM10" s="49"/>
+      <c r="AN10" s="49"/>
+      <c r="AO10" s="49"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" s="18">
         <v>80</v>
@@ -1859,7 +1862,7 @@
       <c r="AF11" s="31">
         <v>110</v>
       </c>
-      <c r="AG11" s="64">
+      <c r="AG11" s="44">
         <v>111</v>
       </c>
       <c r="AH11" s="33">
@@ -1889,112 +1892,112 @@
     </row>
     <row r="12" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="J12" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
-      <c r="J12" s="39" t="s">
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="39" t="s">
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI12" s="40"/>
-      <c r="AJ12" s="40"/>
-      <c r="AK12" s="40"/>
-      <c r="AL12" s="41"/>
+      <c r="AI12" s="47"/>
+      <c r="AJ12" s="47"/>
+      <c r="AK12" s="47"/>
+      <c r="AL12" s="48"/>
     </row>
     <row r="13" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="50">
         <v>15</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42">
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50">
         <v>16</v>
       </c>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="38">
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="49">
         <v>17</v>
       </c>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38">
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49">
         <v>18</v>
       </c>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38">
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="49">
         <v>19</v>
       </c>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="38"/>
-      <c r="AK14" s="38"/>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="38"/>
-      <c r="AN14" s="38"/>
-      <c r="AO14" s="38"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="49"/>
+      <c r="AK14" s="49"/>
+      <c r="AL14" s="49"/>
+      <c r="AM14" s="49"/>
+      <c r="AN14" s="49"/>
+      <c r="AO14" s="49"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" s="18">
         <v>120</v>
@@ -2065,7 +2068,7 @@
       <c r="X15" s="23">
         <v>142</v>
       </c>
-      <c r="Y15" s="65">
+      <c r="Y15" s="45">
         <v>143</v>
       </c>
       <c r="Z15" s="29">
@@ -2119,115 +2122,115 @@
     </row>
     <row r="16" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="39" t="s">
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="39" t="s">
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="47"/>
+      <c r="AD16" s="48"/>
+      <c r="AH16" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="41"/>
-      <c r="AH16" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI16" s="40"/>
-      <c r="AJ16" s="40"/>
-      <c r="AK16" s="40"/>
-      <c r="AL16" s="40"/>
-      <c r="AM16" s="41"/>
-      <c r="AN16" s="39"/>
-      <c r="AO16" s="40"/>
+      <c r="AI16" s="47"/>
+      <c r="AJ16" s="47"/>
+      <c r="AK16" s="47"/>
+      <c r="AL16" s="47"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="46"/>
+      <c r="AO16" s="47"/>
     </row>
     <row r="17" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="50">
         <v>20</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="38">
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="49">
         <v>21</v>
       </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38">
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49">
         <v>22</v>
       </c>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38">
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49">
         <v>23</v>
       </c>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="38">
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="49">
         <v>24</v>
       </c>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="38"/>
-      <c r="AK18" s="38"/>
-      <c r="AL18" s="38"/>
-      <c r="AM18" s="38"/>
-      <c r="AN18" s="38"/>
-      <c r="AO18" s="38"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="49"/>
+      <c r="AL18" s="49"/>
+      <c r="AM18" s="49"/>
+      <c r="AN18" s="49"/>
+      <c r="AO18" s="49"/>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="19">
         <v>160</v>
@@ -2352,115 +2355,115 @@
     </row>
     <row r="20" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="39" t="s">
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="48"/>
+      <c r="Z20" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="39" t="s">
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="41"/>
-      <c r="Z20" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="41"/>
-      <c r="AF20" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG20" s="40"/>
-      <c r="AH20" s="40"/>
-      <c r="AI20" s="40"/>
-      <c r="AJ20" s="40"/>
-      <c r="AK20" s="40"/>
-      <c r="AL20" s="40"/>
-      <c r="AM20" s="40"/>
-      <c r="AN20" s="40"/>
-      <c r="AO20" s="41"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="47"/>
+      <c r="AL20" s="47"/>
+      <c r="AM20" s="47"/>
+      <c r="AN20" s="47"/>
+      <c r="AO20" s="48"/>
     </row>
     <row r="21" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="38">
+      <c r="B22" s="49">
         <v>25</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38">
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49">
         <v>26</v>
       </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38">
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49">
         <v>27</v>
       </c>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38">
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49">
         <v>28</v>
       </c>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="38"/>
-      <c r="AF22" s="38"/>
-      <c r="AG22" s="38"/>
-      <c r="AH22" s="38">
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="49"/>
+      <c r="AG22" s="49"/>
+      <c r="AH22" s="49">
         <v>29</v>
       </c>
-      <c r="AI22" s="38"/>
-      <c r="AJ22" s="38"/>
-      <c r="AK22" s="38"/>
-      <c r="AL22" s="38"/>
-      <c r="AM22" s="38"/>
-      <c r="AN22" s="38"/>
-      <c r="AO22" s="38"/>
+      <c r="AI22" s="49"/>
+      <c r="AJ22" s="49"/>
+      <c r="AK22" s="49"/>
+      <c r="AL22" s="49"/>
+      <c r="AM22" s="49"/>
+      <c r="AN22" s="49"/>
+      <c r="AO22" s="49"/>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23" s="18">
         <v>200</v>
@@ -2483,7 +2486,7 @@
       <c r="H23" s="20">
         <v>206</v>
       </c>
-      <c r="I23" s="62">
+      <c r="I23" s="42">
         <v>207</v>
       </c>
       <c r="J23" s="24">
@@ -2585,55 +2588,55 @@
     </row>
     <row r="24" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="48"/>
+      <c r="R24" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="39" t="s">
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="41"/>
-      <c r="R24" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="39" t="s">
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="47"/>
+      <c r="AF24" s="47"/>
+      <c r="AG24" s="48"/>
+      <c r="AH24" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="40"/>
-      <c r="AG24" s="41"/>
-      <c r="AH24" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI24" s="40"/>
-      <c r="AJ24" s="40"/>
-      <c r="AK24" s="40"/>
-      <c r="AL24" s="40"/>
-      <c r="AM24" s="40"/>
-      <c r="AN24" s="40"/>
-      <c r="AO24" s="41"/>
+      <c r="AI24" s="47"/>
+      <c r="AJ24" s="47"/>
+      <c r="AK24" s="47"/>
+      <c r="AL24" s="47"/>
+      <c r="AM24" s="47"/>
+      <c r="AN24" s="47"/>
+      <c r="AO24" s="48"/>
     </row>
     <row r="25" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:41" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3097,40 +3100,16 @@
     <row r="484" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="X8:AG8"/>
-    <mergeCell ref="AH8:AN8"/>
-    <mergeCell ref="Z10:AG10"/>
-    <mergeCell ref="AH10:AO10"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:Y14"/>
-    <mergeCell ref="Z14:AG14"/>
-    <mergeCell ref="AH14:AO14"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="J10:Q10"/>
-    <mergeCell ref="R10:Y10"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="P12:Y12"/>
-    <mergeCell ref="Z12:AF12"/>
-    <mergeCell ref="AH12:AL12"/>
-    <mergeCell ref="Z2:AG2"/>
-    <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="J6:Q6"/>
-    <mergeCell ref="R6:Y6"/>
-    <mergeCell ref="Z6:AG6"/>
-    <mergeCell ref="AH6:AO6"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="R4:AA4"/>
-    <mergeCell ref="AF4:AO4"/>
+    <mergeCell ref="AH22:AO22"/>
+    <mergeCell ref="AH24:AO24"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="X24:AG24"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R22:Y22"/>
+    <mergeCell ref="Z22:AG22"/>
     <mergeCell ref="Z16:AD16"/>
     <mergeCell ref="AH16:AM16"/>
     <mergeCell ref="B20:I20"/>
@@ -3147,16 +3126,40 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="H16:Q16"/>
     <mergeCell ref="R16:X16"/>
-    <mergeCell ref="AH22:AO22"/>
-    <mergeCell ref="AH24:AO24"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="X24:AG24"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R22:Y22"/>
-    <mergeCell ref="Z22:AG22"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="R6:Y6"/>
+    <mergeCell ref="Z6:AG6"/>
+    <mergeCell ref="AH6:AO6"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="R4:AA4"/>
+    <mergeCell ref="AF4:AO4"/>
+    <mergeCell ref="Z10:AG10"/>
+    <mergeCell ref="AH10:AO10"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:Y14"/>
+    <mergeCell ref="Z14:AG14"/>
+    <mergeCell ref="AH14:AO14"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="J10:Q10"/>
+    <mergeCell ref="R10:Y10"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="P12:Y12"/>
+    <mergeCell ref="Z12:AF12"/>
+    <mergeCell ref="AH12:AL12"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="X8:AG8"/>
+    <mergeCell ref="AH8:AN8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3231,65 +3234,65 @@
       <c r="F3" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="47" t="s">
+      <c r="K3" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="N3" s="50" t="s">
+      <c r="N3" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="50" t="s">
+      <c r="O3" s="55" t="s">
         <v>63</v>
       </c>
       <c r="P3" s="53" t="s">
         <v>5</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R3" s="53" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="51"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
       <c r="Q4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="51"/>
+      <c r="R4" s="54"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -3351,25 +3354,25 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="59">
         <v>1</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="45">
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="60">
         <v>3</v>
       </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="46"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="61"/>
       <c r="Q6" s="2">
         <v>1</v>
       </c>
@@ -3383,6 +3386,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="L3:L4"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="B3:B4"/>
@@ -3397,11 +3405,6 @@
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="L3:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3432,29 +3435,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="53" t="s">
@@ -3488,28 +3491,28 @@
         <v>15</v>
       </c>
       <c r="L3" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="O3" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="P3" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="O3" s="53" t="s">
+      <c r="Q3" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="P3" s="53" t="s">
+      <c r="R3" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="Q3" s="53" t="s">
+      <c r="S3" s="53" t="s">
         <v>109</v>
-      </c>
-      <c r="R3" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="S3" s="53" t="s">
-        <v>111</v>
       </c>
       <c r="T3" s="8" t="s">
         <v>6</v>
@@ -3517,36 +3520,36 @@
       <c r="U3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="56" t="s">
+      <c r="V3" s="64" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
       <c r="T4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="57"/>
+      <c r="V4" s="65"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -3615,6 +3618,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
@@ -3631,10 +3638,6 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
